--- a/INTLINE/data/536/BKPM/DDI.xlsx
+++ b/INTLINE/data/536/BKPM/DDI.xlsx
@@ -18924,13 +18924,13 @@
     </row>
     <row r="94" spans="1:93">
       <c r="A94" s="15">
-        <v>44728</v>
+        <v>44740</v>
       </c>
       <c r="AU94" s="16">
         <v>1</v>
       </c>
       <c r="CO94" s="17">
-        <v>0.64146990</v>
+        <v>0.32115740</v>
       </c>
     </row>
   </sheetData>
